--- a/output.xlsx
+++ b/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,63 +460,231 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>INC001</v>
+        <v/>
       </c>
       <c r="B2" t="str">
-        <v>Accident</v>
+        <v/>
       </c>
       <c r="C2" t="str">
-        <v>PIE</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>towards Tuas</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>before Eunos Exit</v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v>2025-05-17T07:35:00+08:00</v>
+        <v/>
       </c>
       <c r="G2" t="str">
-        <v>Ongoing</v>
+        <v/>
       </c>
       <c r="H2" t="str">
-        <v>Car, Motorcycle</v>
+        <v/>
       </c>
       <c r="I2" t="str">
-        <v>SBC1234X, FBA5678Z</v>
+        <v/>
       </c>
       <c r="J2" t="str">
-        <v>Moderate, High</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
       <c r="L2" t="str">
-        <v>Lane 1, Lane 2</v>
+        <v/>
       </c>
       <c r="M2" t="str">
-        <v>Diversion, Congestion Alert</v>
+        <v/>
       </c>
       <c r="N2" t="str">
-        <v>Use Exit 10A to Eunos Link, Avoid Lane 1 and Lane 2 near the exit, Expect delays of up to 25 minutes, Heavy traffic from Kallang Way to Eunos</v>
+        <v/>
       </c>
       <c r="O2" t="str">
-        <v>Traffic Police, SCDF</v>
+        <v/>
       </c>
       <c r="P2" t="str">
-        <v>2025-05-17T07:45:00+08:00, 2025-05-17T07:50:00+08:00</v>
+        <v/>
       </c>
       <c r="Q2" t="str">
-        <v>Sgt. Tan Wei, Cpl. Lim Hui, Lt. Ravi Kumar, Spec. Ong Jia</v>
+        <v/>
       </c>
       <c r="R2" t="str">
-        <v>Team Leader, Traffic Control, Rescue Operations, Paramedic</v>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -443,7 +443,7 @@
         <v>advisories.type</v>
       </c>
       <c r="N1" t="str">
-        <v>advisories.messages</v>
+        <v>advisories.message</v>
       </c>
       <c r="O1" t="str">
         <v>responders.agency</v>
@@ -460,58 +460,58 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
+        <v>INC001</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>Accident</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>PIE</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>towards Tuas</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>before Eunos Exit</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>2025-05-17T07:35:00+08:00</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>Ongoing</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>Car</v>
       </c>
       <c r="I2" t="str">
-        <v/>
+        <v>SBC1234X</v>
       </c>
       <c r="J2" t="str">
-        <v/>
-      </c>
-      <c r="K2" t="str">
-        <v/>
+        <v>Moderate</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
       <c r="L2" t="str">
-        <v/>
+        <v>Lane 1, Lane 2</v>
       </c>
       <c r="M2" t="str">
-        <v/>
+        <v>Diversion</v>
       </c>
       <c r="N2" t="str">
-        <v/>
+        <v>Use Exit 10A to Eunos Link</v>
       </c>
       <c r="O2" t="str">
-        <v/>
+        <v>Traffic Police</v>
       </c>
       <c r="P2" t="str">
-        <v/>
+        <v>2025-05-17T07:45:00+08:00</v>
       </c>
       <c r="Q2" t="str">
-        <v/>
+        <v>Sgt. Tan Wei</v>
       </c>
       <c r="R2" t="str">
-        <v/>
+        <v>Team Leader</v>
       </c>
     </row>
     <row r="3">
@@ -564,10 +564,10 @@
         <v/>
       </c>
       <c r="Q3" t="str">
-        <v/>
+        <v>Cpl. Lim Hui</v>
       </c>
       <c r="R3" t="str">
-        <v/>
+        <v>Traffic Control</v>
       </c>
     </row>
     <row r="4">
@@ -614,16 +614,16 @@
         <v/>
       </c>
       <c r="O4" t="str">
-        <v/>
+        <v>SCDF</v>
       </c>
       <c r="P4" t="str">
-        <v/>
+        <v>2025-05-17T07:50:00+08:00</v>
       </c>
       <c r="Q4" t="str">
-        <v/>
+        <v>Lt. Ravi Kumar</v>
       </c>
       <c r="R4" t="str">
-        <v/>
+        <v>Rescue Operations</v>
       </c>
     </row>
     <row r="5">
@@ -649,13 +649,13 @@
         <v/>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>Motorcycle</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>FBA5678Z</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>High</v>
       </c>
       <c r="K5" t="str">
         <v/>
@@ -664,10 +664,10 @@
         <v/>
       </c>
       <c r="M5" t="str">
-        <v/>
+        <v>Congestion Alert</v>
       </c>
       <c r="N5" t="str">
-        <v/>
+        <v>Expect delays of up to 25 minutes</v>
       </c>
       <c r="O5" t="str">
         <v/>
@@ -676,10 +676,10 @@
         <v/>
       </c>
       <c r="Q5" t="str">
-        <v/>
+        <v>Spec. Ong Jia</v>
       </c>
       <c r="R5" t="str">
-        <v/>
+        <v>Paramedic</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -397,26 +397,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>location.road</v>
+      </c>
+      <c r="B1" t="str">
+        <v>location.direction</v>
+      </c>
+      <c r="C1" t="str">
+        <v>location.landmark</v>
+      </c>
+      <c r="D1" t="str">
         <v>incidentId</v>
       </c>
-      <c r="B1" t="str">
+      <c r="E1" t="str">
         <v>type</v>
-      </c>
-      <c r="C1" t="str">
-        <v>location.road</v>
-      </c>
-      <c r="D1" t="str">
-        <v>location.direction</v>
-      </c>
-      <c r="E1" t="str">
-        <v>location.landmark</v>
       </c>
       <c r="F1" t="str">
         <v>time</v>
@@ -443,7 +443,7 @@
         <v>advisories.type</v>
       </c>
       <c r="N1" t="str">
-        <v>advisories.message</v>
+        <v>advisories.messages</v>
       </c>
       <c r="O1" t="str">
         <v>responders.agency</v>
@@ -460,19 +460,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>PIE</v>
+      </c>
+      <c r="B2" t="str">
+        <v>towards Tuas</v>
+      </c>
+      <c r="C2" t="str">
+        <v>before Eunos Exit</v>
+      </c>
+      <c r="D2" t="str">
         <v>INC001</v>
       </c>
-      <c r="B2" t="str">
+      <c r="E2" t="str">
         <v>Accident</v>
-      </c>
-      <c r="C2" t="str">
-        <v>PIE</v>
-      </c>
-      <c r="D2" t="str">
-        <v>towards Tuas</v>
-      </c>
-      <c r="E2" t="str">
-        <v>before Eunos Exit</v>
       </c>
       <c r="F2" t="str">
         <v>2025-05-17T07:35:00+08:00</v>
@@ -499,7 +499,7 @@
         <v>Diversion</v>
       </c>
       <c r="N2" t="str">
-        <v>Use Exit 10A to Eunos Link</v>
+        <v/>
       </c>
       <c r="O2" t="str">
         <v>Traffic Police</v>
@@ -649,13 +649,13 @@
         <v/>
       </c>
       <c r="H5" t="str">
-        <v>Motorcycle</v>
+        <v/>
       </c>
       <c r="I5" t="str">
-        <v>FBA5678Z</v>
+        <v/>
       </c>
       <c r="J5" t="str">
-        <v>High</v>
+        <v/>
       </c>
       <c r="K5" t="str">
         <v/>
@@ -664,10 +664,10 @@
         <v/>
       </c>
       <c r="M5" t="str">
-        <v>Congestion Alert</v>
+        <v/>
       </c>
       <c r="N5" t="str">
-        <v>Expect delays of up to 25 minutes</v>
+        <v/>
       </c>
       <c r="O5" t="str">
         <v/>
@@ -682,9 +682,457 @@
         <v>Paramedic</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v>Congestion Alert</v>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v>Motorcycle</v>
+      </c>
+      <c r="I7" t="str">
+        <v>FBA5678Z</v>
+      </c>
+      <c r="J7" t="str">
+        <v>High</v>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>AYE</v>
+      </c>
+      <c r="B8" t="str">
+        <v>towards Tuas</v>
+      </c>
+      <c r="C8" t="str">
+        <v>before Eunos Exit</v>
+      </c>
+      <c r="D8" t="str">
+        <v>INC002</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Accident</v>
+      </c>
+      <c r="F8" t="str">
+        <v>2025-05-17T07:35:00+08:00</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Ongoing</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Train</v>
+      </c>
+      <c r="I8" t="str">
+        <v>SBC1234X</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Moderate</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="str">
+        <v>Lane 1, Lane 2</v>
+      </c>
+      <c r="M8" t="str">
+        <v>Diversion</v>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v>Special Operations Command</v>
+      </c>
+      <c r="P8" t="str">
+        <v>2025-05-17T07:45:00+08:00</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>Sgt. Tan Wei</v>
+      </c>
+      <c r="R8" t="str">
+        <v>Team Leader</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <v>Cpl. Lim Hui</v>
+      </c>
+      <c r="R9" t="str">
+        <v>Traffic Control</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <v>Other Agency</v>
+      </c>
+      <c r="P10" t="str">
+        <v>2025-05-17T07:50:00+08:00</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>Lt. Ravi Kumar</v>
+      </c>
+      <c r="R10" t="str">
+        <v>Rescue Operations</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <v>Spec. Ong Jia</v>
+      </c>
+      <c r="R11" t="str">
+        <v>Paramedic</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <v>Congestion Alert</v>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v>Truck</v>
+      </c>
+      <c r="I13" t="str">
+        <v>FBA5678Z</v>
+      </c>
+      <c r="J13" t="str">
+        <v>High</v>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -443,7 +443,7 @@
         <v>advisories.type</v>
       </c>
       <c r="N1" t="str">
-        <v>advisories.messages</v>
+        <v>advisories.message</v>
       </c>
       <c r="O1" t="str">
         <v>responders.agency</v>
@@ -499,7 +499,7 @@
         <v>Diversion</v>
       </c>
       <c r="N2" t="str">
-        <v/>
+        <v>Use Exit 10A to Eunos Link</v>
       </c>
       <c r="O2" t="str">
         <v>Traffic Police</v>
@@ -723,7 +723,7 @@
         <v>Congestion Alert</v>
       </c>
       <c r="N6" t="str">
-        <v/>
+        <v>Expect delays of up to 25 minutes</v>
       </c>
       <c r="O6" t="str">
         <v/>
@@ -835,7 +835,7 @@
         <v>Diversion</v>
       </c>
       <c r="N8" t="str">
-        <v/>
+        <v>Use Exit 10A to Eunos Link</v>
       </c>
       <c r="O8" t="str">
         <v>Special Operations Command</v>
@@ -1059,7 +1059,7 @@
         <v>Congestion Alert</v>
       </c>
       <c r="N12" t="str">
-        <v/>
+        <v>Expect delays of up to 25 minutes</v>
       </c>
       <c r="O12" t="str">
         <v/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -537,13 +537,13 @@
         <v/>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>Motorcycle</v>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>FBA5678Z</v>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>High</v>
       </c>
       <c r="K3" t="str">
         <v/>
@@ -552,10 +552,10 @@
         <v/>
       </c>
       <c r="M3" t="str">
-        <v/>
+        <v>Congestion Alert</v>
       </c>
       <c r="N3" t="str">
-        <v/>
+        <v>Expect delays of up to 25 minutes</v>
       </c>
       <c r="O3" t="str">
         <v/>
@@ -684,58 +684,58 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>AYE</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>towards Tuas</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>before Eunos Exit</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>INC002</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>Accident</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>2025-05-17T07:35:00+08:00</v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>Ongoing</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>Train</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>SBC1234X</v>
       </c>
       <c r="J6" t="str">
-        <v/>
-      </c>
-      <c r="K6" t="str">
-        <v/>
+        <v>Moderate</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="L6" t="str">
-        <v/>
+        <v>Lane 1, Lane 2</v>
       </c>
       <c r="M6" t="str">
-        <v>Congestion Alert</v>
+        <v>Diversion</v>
       </c>
       <c r="N6" t="str">
-        <v>Expect delays of up to 25 minutes</v>
+        <v>Use Exit 10A to Eunos Link</v>
       </c>
       <c r="O6" t="str">
-        <v/>
+        <v>Special Operations Command</v>
       </c>
       <c r="P6" t="str">
-        <v/>
+        <v>2025-05-17T07:45:00+08:00</v>
       </c>
       <c r="Q6" t="str">
-        <v/>
+        <v>Sgt. Tan Wei</v>
       </c>
       <c r="R6" t="str">
-        <v/>
+        <v>Team Leader</v>
       </c>
     </row>
     <row r="7">
@@ -761,7 +761,7 @@
         <v/>
       </c>
       <c r="H7" t="str">
-        <v>Motorcycle</v>
+        <v>Truck</v>
       </c>
       <c r="I7" t="str">
         <v>FBA5678Z</v>
@@ -776,10 +776,10 @@
         <v/>
       </c>
       <c r="M7" t="str">
-        <v/>
+        <v>Congestion Alert</v>
       </c>
       <c r="N7" t="str">
-        <v/>
+        <v>Expect delays of up to 25 minutes</v>
       </c>
       <c r="O7" t="str">
         <v/>
@@ -788,66 +788,66 @@
         <v/>
       </c>
       <c r="Q7" t="str">
-        <v/>
+        <v>Cpl. Lim Hui</v>
       </c>
       <c r="R7" t="str">
-        <v/>
+        <v>Traffic Control</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>AYE</v>
+        <v/>
       </c>
       <c r="B8" t="str">
-        <v>towards Tuas</v>
+        <v/>
       </c>
       <c r="C8" t="str">
-        <v>before Eunos Exit</v>
+        <v/>
       </c>
       <c r="D8" t="str">
-        <v>INC002</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>Accident</v>
+        <v/>
       </c>
       <c r="F8" t="str">
-        <v>2025-05-17T07:35:00+08:00</v>
+        <v/>
       </c>
       <c r="G8" t="str">
-        <v>Ongoing</v>
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v>Train</v>
+        <v/>
       </c>
       <c r="I8" t="str">
-        <v>SBC1234X</v>
+        <v/>
       </c>
       <c r="J8" t="str">
-        <v>Moderate</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
       </c>
       <c r="L8" t="str">
-        <v>Lane 1, Lane 2</v>
+        <v/>
       </c>
       <c r="M8" t="str">
-        <v>Diversion</v>
+        <v/>
       </c>
       <c r="N8" t="str">
-        <v>Use Exit 10A to Eunos Link</v>
+        <v/>
       </c>
       <c r="O8" t="str">
-        <v>Special Operations Command</v>
+        <v>Other Agency</v>
       </c>
       <c r="P8" t="str">
-        <v>2025-05-17T07:45:00+08:00</v>
+        <v>2025-05-17T07:50:00+08:00</v>
       </c>
       <c r="Q8" t="str">
-        <v>Sgt. Tan Wei</v>
+        <v>Lt. Ravi Kumar</v>
       </c>
       <c r="R8" t="str">
-        <v>Team Leader</v>
+        <v>Rescue Operations</v>
       </c>
     </row>
     <row r="9">
@@ -900,239 +900,15 @@
         <v/>
       </c>
       <c r="Q9" t="str">
-        <v>Cpl. Lim Hui</v>
+        <v>Spec. Ong Jia</v>
       </c>
       <c r="R9" t="str">
-        <v>Traffic Control</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v/>
-      </c>
-      <c r="B10" t="str">
-        <v/>
-      </c>
-      <c r="C10" t="str">
-        <v/>
-      </c>
-      <c r="D10" t="str">
-        <v/>
-      </c>
-      <c r="E10" t="str">
-        <v/>
-      </c>
-      <c r="F10" t="str">
-        <v/>
-      </c>
-      <c r="G10" t="str">
-        <v/>
-      </c>
-      <c r="H10" t="str">
-        <v/>
-      </c>
-      <c r="I10" t="str">
-        <v/>
-      </c>
-      <c r="J10" t="str">
-        <v/>
-      </c>
-      <c r="K10" t="str">
-        <v/>
-      </c>
-      <c r="L10" t="str">
-        <v/>
-      </c>
-      <c r="M10" t="str">
-        <v/>
-      </c>
-      <c r="N10" t="str">
-        <v/>
-      </c>
-      <c r="O10" t="str">
-        <v>Other Agency</v>
-      </c>
-      <c r="P10" t="str">
-        <v>2025-05-17T07:50:00+08:00</v>
-      </c>
-      <c r="Q10" t="str">
-        <v>Lt. Ravi Kumar</v>
-      </c>
-      <c r="R10" t="str">
-        <v>Rescue Operations</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v/>
-      </c>
-      <c r="B11" t="str">
-        <v/>
-      </c>
-      <c r="C11" t="str">
-        <v/>
-      </c>
-      <c r="D11" t="str">
-        <v/>
-      </c>
-      <c r="E11" t="str">
-        <v/>
-      </c>
-      <c r="F11" t="str">
-        <v/>
-      </c>
-      <c r="G11" t="str">
-        <v/>
-      </c>
-      <c r="H11" t="str">
-        <v/>
-      </c>
-      <c r="I11" t="str">
-        <v/>
-      </c>
-      <c r="J11" t="str">
-        <v/>
-      </c>
-      <c r="K11" t="str">
-        <v/>
-      </c>
-      <c r="L11" t="str">
-        <v/>
-      </c>
-      <c r="M11" t="str">
-        <v/>
-      </c>
-      <c r="N11" t="str">
-        <v/>
-      </c>
-      <c r="O11" t="str">
-        <v/>
-      </c>
-      <c r="P11" t="str">
-        <v/>
-      </c>
-      <c r="Q11" t="str">
-        <v>Spec. Ong Jia</v>
-      </c>
-      <c r="R11" t="str">
         <v>Paramedic</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v/>
-      </c>
-      <c r="B12" t="str">
-        <v/>
-      </c>
-      <c r="C12" t="str">
-        <v/>
-      </c>
-      <c r="D12" t="str">
-        <v/>
-      </c>
-      <c r="E12" t="str">
-        <v/>
-      </c>
-      <c r="F12" t="str">
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <v/>
-      </c>
-      <c r="H12" t="str">
-        <v/>
-      </c>
-      <c r="I12" t="str">
-        <v/>
-      </c>
-      <c r="J12" t="str">
-        <v/>
-      </c>
-      <c r="K12" t="str">
-        <v/>
-      </c>
-      <c r="L12" t="str">
-        <v/>
-      </c>
-      <c r="M12" t="str">
-        <v>Congestion Alert</v>
-      </c>
-      <c r="N12" t="str">
-        <v>Expect delays of up to 25 minutes</v>
-      </c>
-      <c r="O12" t="str">
-        <v/>
-      </c>
-      <c r="P12" t="str">
-        <v/>
-      </c>
-      <c r="Q12" t="str">
-        <v/>
-      </c>
-      <c r="R12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v/>
-      </c>
-      <c r="B13" t="str">
-        <v/>
-      </c>
-      <c r="C13" t="str">
-        <v/>
-      </c>
-      <c r="D13" t="str">
-        <v/>
-      </c>
-      <c r="E13" t="str">
-        <v/>
-      </c>
-      <c r="F13" t="str">
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <v/>
-      </c>
-      <c r="H13" t="str">
-        <v>Truck</v>
-      </c>
-      <c r="I13" t="str">
-        <v>FBA5678Z</v>
-      </c>
-      <c r="J13" t="str">
-        <v>High</v>
-      </c>
-      <c r="K13" t="str">
-        <v/>
-      </c>
-      <c r="L13" t="str">
-        <v/>
-      </c>
-      <c r="M13" t="str">
-        <v/>
-      </c>
-      <c r="N13" t="str">
-        <v/>
-      </c>
-      <c r="O13" t="str">
-        <v/>
-      </c>
-      <c r="P13" t="str">
-        <v/>
-      </c>
-      <c r="Q13" t="str">
-        <v/>
-      </c>
-      <c r="R13" t="str">
-        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,33 +428,36 @@
         <v>details.vehiclesInvolved.type</v>
       </c>
       <c r="I1" t="str">
-        <v>details.vehiclesInvolved.plateNumber</v>
+        <v>details.vehiclesInvolved.plateNumber.serial</v>
       </c>
       <c r="J1" t="str">
+        <v>details.vehiclesInvolved.plateNumber.region</v>
+      </c>
+      <c r="K1" t="str">
         <v>details.vehiclesInvolved.severity</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>details.casualties</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>details.lanesBlocked</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>advisories.type</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>advisories.message</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>responders.agency</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>responders.arrivalTime</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>responders.personnel.name</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>responders.personnel.role</v>
       </c>
     </row>
@@ -487,30 +490,33 @@
         <v>SBC1234X</v>
       </c>
       <c r="J2" t="str">
+        <v>SG</v>
+      </c>
+      <c r="K2" t="str">
         <v>Moderate</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <v>Lane 1, Lane 2</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <v>Diversion</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <v>Use Exit 10A to Eunos Link</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <v>Traffic Police</v>
       </c>
-      <c r="P2" t="str">
+      <c r="Q2" t="str">
         <v>2025-05-17T07:45:00+08:00</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="R2" t="str">
         <v>Sgt. Tan Wei</v>
       </c>
-      <c r="R2" t="str">
+      <c r="S2" t="str">
         <v>Team Leader</v>
       </c>
     </row>
@@ -540,33 +546,36 @@
         <v>Motorcycle</v>
       </c>
       <c r="I3" t="str">
-        <v>FBA5678Z</v>
+        <v>SBC2334X</v>
       </c>
       <c r="J3" t="str">
+        <v>ML</v>
+      </c>
+      <c r="K3" t="str">
         <v>High</v>
       </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
       <c r="L3" t="str">
         <v/>
       </c>
       <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
         <v>Congestion Alert</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <v>Expect delays of up to 25 minutes</v>
       </c>
-      <c r="O3" t="str">
-        <v/>
-      </c>
       <c r="P3" t="str">
         <v/>
       </c>
       <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
         <v>Cpl. Lim Hui</v>
       </c>
-      <c r="R3" t="str">
+      <c r="S3" t="str">
         <v>Traffic Control</v>
       </c>
     </row>
@@ -614,15 +623,18 @@
         <v/>
       </c>
       <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
         <v>SCDF</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <v>2025-05-17T07:50:00+08:00</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="R4" t="str">
         <v>Lt. Ravi Kumar</v>
       </c>
-      <c r="R4" t="str">
+      <c r="S4" t="str">
         <v>Rescue Operations</v>
       </c>
     </row>
@@ -676,9 +688,12 @@
         <v/>
       </c>
       <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
         <v>Spec. Ong Jia</v>
       </c>
-      <c r="R5" t="str">
+      <c r="S5" t="str">
         <v>Paramedic</v>
       </c>
     </row>
@@ -705,36 +720,39 @@
         <v>Ongoing</v>
       </c>
       <c r="H6" t="str">
-        <v>Train</v>
+        <v>Truck</v>
       </c>
       <c r="I6" t="str">
         <v>SBC1234X</v>
       </c>
       <c r="J6" t="str">
+        <v>SG</v>
+      </c>
+      <c r="K6" t="str">
         <v>Moderate</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <v>Lane 1, Lane 2</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <v>Diversion</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <v>Use Exit 10A to Eunos Link</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <v>Special Operations Command</v>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <v>2025-05-17T07:45:00+08:00</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="R6" t="str">
         <v>Sgt. Tan Wei</v>
       </c>
-      <c r="R6" t="str">
+      <c r="S6" t="str">
         <v>Team Leader</v>
       </c>
     </row>
@@ -761,36 +779,39 @@
         <v/>
       </c>
       <c r="H7" t="str">
-        <v>Truck</v>
+        <v>Motorcycle</v>
       </c>
       <c r="I7" t="str">
-        <v>FBA5678Z</v>
+        <v>SBC2334X</v>
       </c>
       <c r="J7" t="str">
+        <v>ML</v>
+      </c>
+      <c r="K7" t="str">
         <v>High</v>
       </c>
-      <c r="K7" t="str">
-        <v/>
-      </c>
       <c r="L7" t="str">
         <v/>
       </c>
       <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
         <v>Congestion Alert</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O7" t="str">
         <v>Expect delays of up to 25 minutes</v>
       </c>
-      <c r="O7" t="str">
-        <v/>
-      </c>
       <c r="P7" t="str">
         <v/>
       </c>
       <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
         <v>Cpl. Lim Hui</v>
       </c>
-      <c r="R7" t="str">
+      <c r="S7" t="str">
         <v>Traffic Control</v>
       </c>
     </row>
@@ -838,15 +859,18 @@
         <v/>
       </c>
       <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
         <v>Other Agency</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <v>2025-05-17T07:50:00+08:00</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="R8" t="str">
         <v>Lt. Ravi Kumar</v>
       </c>
-      <c r="R8" t="str">
+      <c r="S8" t="str">
         <v>Rescue Operations</v>
       </c>
     </row>
@@ -900,15 +924,18 @@
         <v/>
       </c>
       <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9" t="str">
         <v>Spec. Ong Jia</v>
       </c>
-      <c r="R9" t="str">
+      <c r="S9" t="str">
         <v>Paramedic</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -397,32 +397,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>incidentId</v>
+      </c>
+      <c r="B1" t="str">
+        <v>type</v>
+      </c>
+      <c r="C1" t="str">
+        <v>time</v>
+      </c>
+      <c r="D1" t="str">
+        <v>status</v>
+      </c>
+      <c r="E1" t="str">
         <v>location.road</v>
       </c>
-      <c r="B1" t="str">
+      <c r="F1" t="str">
         <v>location.direction</v>
       </c>
-      <c r="C1" t="str">
+      <c r="G1" t="str">
         <v>location.landmark</v>
-      </c>
-      <c r="D1" t="str">
-        <v>incidentId</v>
-      </c>
-      <c r="E1" t="str">
-        <v>type</v>
-      </c>
-      <c r="F1" t="str">
-        <v>time</v>
-      </c>
-      <c r="G1" t="str">
-        <v>status</v>
       </c>
       <c r="H1" t="str">
         <v>details.vehiclesInvolved.type</v>
@@ -463,25 +463,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>INC001</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Accident</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2025-05-17T07:35:00+08:00</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Ongoing</v>
+      </c>
+      <c r="E2" t="str">
         <v>PIE</v>
       </c>
-      <c r="B2" t="str">
+      <c r="F2" t="str">
         <v>towards Tuas</v>
       </c>
-      <c r="C2" t="str">
+      <c r="G2" t="str">
         <v>before Eunos Exit</v>
-      </c>
-      <c r="D2" t="str">
-        <v>INC001</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Accident</v>
-      </c>
-      <c r="F2" t="str">
-        <v>2025-05-17T07:35:00+08:00</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Ongoing</v>
       </c>
       <c r="H2" t="str">
         <v>Car</v>
@@ -514,10 +514,10 @@
         <v>2025-05-17T07:45:00+08:00</v>
       </c>
       <c r="R2" t="str">
-        <v>Sgt. Tan Wei</v>
+        <v>Sgt. Tan Wei, Cpl. Lim Hui</v>
       </c>
       <c r="S2" t="str">
-        <v>Team Leader</v>
+        <v>Team Leader, Traffic Control</v>
       </c>
     </row>
     <row r="3">
@@ -573,10 +573,10 @@
         <v/>
       </c>
       <c r="R3" t="str">
-        <v>Cpl. Lim Hui</v>
+        <v/>
       </c>
       <c r="S3" t="str">
-        <v>Traffic Control</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -632,7 +632,7 @@
         <v>2025-05-17T07:50:00+08:00</v>
       </c>
       <c r="R4" t="str">
-        <v>Lt. Ravi Kumar</v>
+        <v>Lt. Ravi Kumar, Spec. Ong Jia</v>
       </c>
       <c r="S4" t="str">
         <v>Rescue Operations</v>
@@ -640,120 +640,120 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v/>
+        <v>INC002</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>Accident</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>2025-05-17T07:35:00+08:00</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>Ongoing</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>AYE</v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v>towards Tuas</v>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>before Eunos Exit</v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>Truck</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>SBC1234X</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>SG</v>
       </c>
       <c r="K5" t="str">
-        <v/>
-      </c>
-      <c r="L5" t="str">
-        <v/>
+        <v>Moderate</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
       </c>
       <c r="M5" t="str">
-        <v/>
+        <v>Lane 1, Lane 2</v>
       </c>
       <c r="N5" t="str">
-        <v/>
+        <v>Diversion</v>
       </c>
       <c r="O5" t="str">
-        <v/>
+        <v>Use Exit 10A to Eunos Link</v>
       </c>
       <c r="P5" t="str">
-        <v/>
+        <v>SCDF</v>
       </c>
       <c r="Q5" t="str">
-        <v/>
+        <v>2025-05-17T07:45:00+08:00</v>
       </c>
       <c r="R5" t="str">
-        <v>Spec. Ong Jia</v>
+        <v>Sgt. Tan Wei 2, Cpl. Lim Hui 2</v>
       </c>
       <c r="S5" t="str">
-        <v>Paramedic</v>
+        <v>Rescue Operations</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>AYE</v>
+        <v/>
       </c>
       <c r="B6" t="str">
-        <v>towards Tuas</v>
+        <v/>
       </c>
       <c r="C6" t="str">
-        <v>before Eunos Exit</v>
+        <v/>
       </c>
       <c r="D6" t="str">
-        <v>INC002</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>Accident</v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v>2025-05-17T07:35:00+08:00</v>
+        <v/>
       </c>
       <c r="G6" t="str">
-        <v>Ongoing</v>
+        <v/>
       </c>
       <c r="H6" t="str">
-        <v>Truck</v>
+        <v>Motorcycle</v>
       </c>
       <c r="I6" t="str">
-        <v>SBC1234X</v>
+        <v>SBC2334X</v>
       </c>
       <c r="J6" t="str">
-        <v>SG</v>
+        <v>ML</v>
       </c>
       <c r="K6" t="str">
-        <v>Moderate</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+        <v>High</v>
+      </c>
+      <c r="L6" t="str">
+        <v/>
       </c>
       <c r="M6" t="str">
-        <v>Lane 1, Lane 2</v>
+        <v/>
       </c>
       <c r="N6" t="str">
-        <v>Diversion</v>
+        <v>Congestion Alert</v>
       </c>
       <c r="O6" t="str">
-        <v>Use Exit 10A to Eunos Link</v>
+        <v>Expect delays of up to 25 minutes</v>
       </c>
       <c r="P6" t="str">
-        <v>Special Operations Command</v>
+        <v/>
       </c>
       <c r="Q6" t="str">
-        <v>2025-05-17T07:45:00+08:00</v>
+        <v/>
       </c>
       <c r="R6" t="str">
-        <v>Sgt. Tan Wei</v>
+        <v/>
       </c>
       <c r="S6" t="str">
-        <v>Team Leader</v>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -779,16 +779,16 @@
         <v/>
       </c>
       <c r="H7" t="str">
-        <v>Motorcycle</v>
+        <v/>
       </c>
       <c r="I7" t="str">
-        <v>SBC2334X</v>
+        <v/>
       </c>
       <c r="J7" t="str">
-        <v>ML</v>
+        <v/>
       </c>
       <c r="K7" t="str">
-        <v>High</v>
+        <v/>
       </c>
       <c r="L7" t="str">
         <v/>
@@ -797,145 +797,27 @@
         <v/>
       </c>
       <c r="N7" t="str">
-        <v>Congestion Alert</v>
+        <v/>
       </c>
       <c r="O7" t="str">
-        <v>Expect delays of up to 25 minutes</v>
+        <v/>
       </c>
       <c r="P7" t="str">
-        <v/>
+        <v>Traffic Police</v>
       </c>
       <c r="Q7" t="str">
-        <v/>
+        <v>2025-05-17T07:50:00+08:00</v>
       </c>
       <c r="R7" t="str">
-        <v>Cpl. Lim Hui</v>
+        <v>Lt. Ravi Kumar 2, Spec. Ong Jia 2</v>
       </c>
       <c r="S7" t="str">
-        <v>Traffic Control</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v/>
-      </c>
-      <c r="B8" t="str">
-        <v/>
-      </c>
-      <c r="C8" t="str">
-        <v/>
-      </c>
-      <c r="D8" t="str">
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <v/>
-      </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
-      <c r="H8" t="str">
-        <v/>
-      </c>
-      <c r="I8" t="str">
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <v/>
-      </c>
-      <c r="K8" t="str">
-        <v/>
-      </c>
-      <c r="L8" t="str">
-        <v/>
-      </c>
-      <c r="M8" t="str">
-        <v/>
-      </c>
-      <c r="N8" t="str">
-        <v/>
-      </c>
-      <c r="O8" t="str">
-        <v/>
-      </c>
-      <c r="P8" t="str">
-        <v>Other Agency</v>
-      </c>
-      <c r="Q8" t="str">
-        <v>2025-05-17T07:50:00+08:00</v>
-      </c>
-      <c r="R8" t="str">
-        <v>Lt. Ravi Kumar</v>
-      </c>
-      <c r="S8" t="str">
         <v>Rescue Operations</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v/>
-      </c>
-      <c r="B9" t="str">
-        <v/>
-      </c>
-      <c r="C9" t="str">
-        <v/>
-      </c>
-      <c r="D9" t="str">
-        <v/>
-      </c>
-      <c r="E9" t="str">
-        <v/>
-      </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <v/>
-      </c>
-      <c r="H9" t="str">
-        <v/>
-      </c>
-      <c r="I9" t="str">
-        <v/>
-      </c>
-      <c r="J9" t="str">
-        <v/>
-      </c>
-      <c r="K9" t="str">
-        <v/>
-      </c>
-      <c r="L9" t="str">
-        <v/>
-      </c>
-      <c r="M9" t="str">
-        <v/>
-      </c>
-      <c r="N9" t="str">
-        <v/>
-      </c>
-      <c r="O9" t="str">
-        <v/>
-      </c>
-      <c r="P9" t="str">
-        <v/>
-      </c>
-      <c r="Q9" t="str">
-        <v/>
-      </c>
-      <c r="R9" t="str">
-        <v>Spec. Ong Jia</v>
-      </c>
-      <c r="S9" t="str">
-        <v>Paramedic</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S7"/>
   </ignoredErrors>
 </worksheet>
 </file>